--- a/medicine/Enfance/René_Duverne/René_Duverne.xlsx
+++ b/medicine/Enfance/René_Duverne/René_Duverne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Duverne</t>
+          <t>René_Duverne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Duverne, né le 7 mai 1893 à Lure en Haute-Saône et mort le 20 avril 1974 à Aix-en-Provence, est un écrivain français de romans pour la jeunesse et de romans populaires. Fils d'un employé des postes et d'une mère "sans profession" au moment de sa naissance, le romancier demeure mal connu. Il est aussi l'auteur de pièces de théâtre généralement édifiantes et moralisatrices écrites avant la Première Guerre mondiale. De 1933 à 1939, René Duverne est rédacteur en chef de la revue mensuelle Mon théâtre publiée à Niort. Il a aussi publié sous le pseudonyme Pierre Régis.
-Il a été fonctionnaire au ministère des Finances[1]. Parmi des activités sociales très diverses, il s'est occupé particulièrement de la protection de l'enfance. Il participe aux journaux catholiques pour la jeunesse de la Maison de la Bonne Presse (L'Etoile Noéliste, Le Noël, Bayard, Bernadette) et des Éditions Fleurus (Cœurs Vaillants, Âmes vaillantes), ces deux maisons ayant publié une grande partie de son œuvre.
+Il a été fonctionnaire au ministère des Finances. Parmi des activités sociales très diverses, il s'est occupé particulièrement de la protection de l'enfance. Il participe aux journaux catholiques pour la jeunesse de la Maison de la Bonne Presse (L'Etoile Noéliste, Le Noël, Bayard, Bernadette) et des Éditions Fleurus (Cœurs Vaillants, Âmes vaillantes), ces deux maisons ayant publié une grande partie de son œuvre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Duverne</t>
+          <t>René_Duverne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
 Pouck. Vie et aventures d'un petit garçon pendant la guerre, Plon, 1919
